--- a/tidyplants.xlsx
+++ b/tidyplants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jksch\Desktop\Plant-Data-Survival-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jksch\Plant-Data-Survival-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5434539-F258-4E3C-B642-E27A5782AEFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B1E735-0901-4CD0-951F-BD5EF7BDE8E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survival_cdf.Data" sheetId="1" r:id="rId1"/>
@@ -64,15 +64,6 @@
     <t>Test1LL</t>
   </si>
   <si>
-    <t>Ntot</t>
-  </si>
-  <si>
-    <t>Nobs</t>
-  </si>
-  <si>
-    <t>Ncens</t>
-  </si>
-  <si>
     <t>Test2LL</t>
   </si>
   <si>
@@ -82,16 +73,25 @@
     <t>Test4LL</t>
   </si>
   <si>
-    <t>ycens</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test1LL </t>
   </si>
   <si>
     <t xml:space="preserve">Test2LL </t>
   </si>
   <si>
-    <t>Trial.Name</t>
+    <t>Trial Name</t>
+  </si>
+  <si>
+    <t>Total Number of Plants</t>
+  </si>
+  <si>
+    <t>Observed Data</t>
+  </si>
+  <si>
+    <t>Censored Data</t>
+  </si>
+  <si>
+    <t>Censor Day</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,7 +422,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>11</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -1909,32 +1909,36 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2086,7 +2090,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2107,7 +2111,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2128,7 +2132,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2149,7 +2153,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2170,7 +2174,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -2191,7 +2195,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -2212,7 +2216,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -2233,7 +2237,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2254,7 +2258,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2275,7 +2279,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -2296,7 +2300,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2317,7 +2321,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -2338,7 +2342,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2359,7 +2363,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -2380,7 +2384,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2401,7 +2405,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2422,7 +2426,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -2443,7 +2447,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -2464,7 +2468,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -2485,7 +2489,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -2506,7 +2510,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
